--- a/NumNetModel/Analysis/stage1 analysis.xlsx
+++ b/NumNetModel/Analysis/stage1 analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sabyasachibisoyi/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\alloju-asu\Fall 2020\Natural Language Processing CSE 576\final project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4926D3AD-BAD6-7241-A434-56C610DC5E05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E9D0DE-9625-4F32-B900-C0EC9D35FD96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{161EC8F5-54C3-46F4-AC18-42C925B01B9D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{161EC8F5-54C3-46F4-AC18-42C925B01B9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
   <si>
     <t>ID</t>
   </si>
@@ -162,19 +162,31 @@
     <t>766ebcd59621e305170616ba3d3dac32</t>
   </si>
   <si>
-    <t xml:space="preserve">prediction value(DROP) </t>
-  </si>
-  <si>
     <t>Prediction value</t>
   </si>
   <si>
-    <t>Accuracy(DROP)</t>
-  </si>
-  <si>
-    <t>accuracy = 43.5</t>
-  </si>
-  <si>
-    <t>accuracy = 17.94</t>
+    <t>Prediction value(DROP) epoch3</t>
+  </si>
+  <si>
+    <t>Accuracy 0.44</t>
+  </si>
+  <si>
+    <t>Accuracy = 0.18</t>
+  </si>
+  <si>
+    <t>Accuracy = 0.15</t>
+  </si>
+  <si>
+    <t>Accuracy2</t>
+  </si>
+  <si>
+    <t>Accuracy3</t>
+  </si>
+  <si>
+    <t>Prediction value(DROP) epoch=1</t>
+  </si>
+  <si>
+    <t>Score = 80</t>
   </si>
 </sst>
 </file>
@@ -228,6 +240,23 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6A64AF34-8FB0-4A96-9C45-2CFE2F95574E}" name="Table1" displayName="Table1" ref="A1:H40" totalsRowShown="0">
+  <autoFilter ref="A1:H40" xr:uid="{F493C3CA-E3F5-4AF1-845C-AF57034899BD}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{F2369727-29C4-44BD-B5F2-46C7C7FC56EC}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{D95A428A-6B3E-49ED-9698-17F5F7695954}" name="original value"/>
+    <tableColumn id="3" xr3:uid="{07463003-26D2-4936-BD90-7380D5FB32CE}" name="Prediction value"/>
+    <tableColumn id="4" xr3:uid="{A5CED7E0-3789-428E-B8BC-8D505B2193E7}" name="Accuracy"/>
+    <tableColumn id="5" xr3:uid="{8B997538-F90C-4D1F-8A56-FC3497EC94F2}" name="Prediction value(DROP) epoch=1"/>
+    <tableColumn id="6" xr3:uid="{A8627DE4-E3DD-4B7B-AC93-7157F0CBC914}" name="Accuracy2"/>
+    <tableColumn id="7" xr3:uid="{6F45FA46-73A8-4CA2-A587-509F2981D9CF}" name="Prediction value(DROP) epoch3"/>
+    <tableColumn id="8" xr3:uid="{CACE53B9-68C2-45EA-9363-2128823A93D6}" name="Accuracy3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -527,23 +556,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A55D6732-AF8A-4674-A9D4-1CDE68DA1FEC}">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.83203125" customWidth="1"/>
-    <col min="2" max="4" width="13.83203125" customWidth="1"/>
-    <col min="5" max="5" width="21.1640625" customWidth="1"/>
-    <col min="6" max="6" width="19.5" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" customWidth="1"/>
-    <col min="11" max="16" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="36.77734375" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+    <col min="5" max="5" width="22.109375" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" customWidth="1"/>
+    <col min="7" max="7" width="28.109375" customWidth="1"/>
+    <col min="8" max="8" width="11.21875" customWidth="1"/>
+    <col min="11" max="16" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -551,19 +583,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="G1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -579,8 +617,11 @@
       <c r="E2">
         <v>5.25</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -596,8 +637,11 @@
       <c r="E3">
         <v>47</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -613,8 +657,11 @@
       <c r="E4">
         <v>14797</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4">
+        <v>14797</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -627,8 +674,11 @@
       <c r="E5">
         <v>98</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -647,8 +697,14 @@
       <c r="F6" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6">
+        <v>1.833</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -661,8 +717,11 @@
       <c r="E7">
         <v>0.16666666666666599</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7">
+        <v>0.16700000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -678,8 +737,11 @@
       <c r="E8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -692,8 +754,11 @@
       <c r="E9">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -706,8 +771,11 @@
       <c r="E10">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -720,8 +788,11 @@
       <c r="E11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -734,8 +805,11 @@
       <c r="E12">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -748,8 +822,11 @@
       <c r="E13">
         <v>420</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -762,8 +839,11 @@
       <c r="E14">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -782,8 +862,14 @@
       <c r="F15" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15">
+        <v>0.2</v>
+      </c>
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -796,8 +882,11 @@
       <c r="E16">
         <v>54</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -816,8 +905,14 @@
       <c r="F17" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17">
+        <v>0.1</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -830,8 +925,11 @@
       <c r="E18">
         <v>34</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -850,8 +948,14 @@
       <c r="F19" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19">
+        <v>88</v>
+      </c>
+      <c r="H19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -870,8 +974,14 @@
       <c r="F20" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20">
+        <v>3.6669999999999998</v>
+      </c>
+      <c r="H20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -887,8 +997,11 @@
       <c r="E21">
         <v>0.625</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -904,8 +1017,11 @@
       <c r="E22">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -921,8 +1037,11 @@
       <c r="E23">
         <v>26</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -938,8 +1057,11 @@
       <c r="E24">
         <v>14</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -952,8 +1074,11 @@
       <c r="E25">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -966,8 +1091,11 @@
       <c r="E26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -986,8 +1114,11 @@
       <c r="F27" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -1000,8 +1131,11 @@
       <c r="E28">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -1014,8 +1148,11 @@
       <c r="E29">
         <v>15</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -1028,8 +1165,11 @@
       <c r="E30">
         <v>144</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -1042,8 +1182,11 @@
       <c r="E31">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -1056,8 +1199,11 @@
       <c r="E32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G32">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -1073,8 +1219,11 @@
       <c r="E33">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -1090,8 +1239,11 @@
       <c r="E34">
         <v>86</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G34">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -1104,8 +1256,11 @@
       <c r="E35">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -1124,8 +1279,14 @@
       <c r="F36" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G36">
+        <v>0.36</v>
+      </c>
+      <c r="H36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -1138,8 +1299,11 @@
       <c r="E37">
         <v>27</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G37">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -1152,8 +1316,11 @@
       <c r="E38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G38">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -1166,8 +1333,11 @@
       <c r="E39">
         <v>144</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G39">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -1180,16 +1350,36 @@
       <c r="E40">
         <v>24</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G40">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
         <v>45</v>
       </c>
-      <c r="F42" t="s">
+      <c r="H42" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D43" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" t="s">
+        <v>50</v>
+      </c>
+      <c r="H43" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>